--- a/data/pca/factorExposure/factorExposure_2018-10-25.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-10-25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +723,94 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.06600971339767545</v>
+        <v>-0.04403366933725698</v>
       </c>
       <c r="C2">
-        <v>-0.06183894291224779</v>
+        <v>-0.00261819496298061</v>
       </c>
       <c r="D2">
-        <v>-0.06018049848517135</v>
+        <v>0.01717896128790183</v>
       </c>
       <c r="E2">
-        <v>-0.03830587368831221</v>
+        <v>0.01564062002422533</v>
       </c>
       <c r="F2">
-        <v>0.1462766419938896</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>-0.04344429335932814</v>
+      </c>
+      <c r="G2">
+        <v>0.1063060777373814</v>
+      </c>
+      <c r="H2">
+        <v>-0.05263710081034675</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>-0.1823024308389506</v>
+        <v>-0.1118700630450181</v>
       </c>
       <c r="C3">
-        <v>-0.001194407457483773</v>
+        <v>0.04107195286928139</v>
       </c>
       <c r="D3">
-        <v>-0.1279257250744618</v>
+        <v>0.05381623574127626</v>
       </c>
       <c r="E3">
-        <v>-0.1165799632833994</v>
+        <v>0.009640035389640342</v>
       </c>
       <c r="F3">
-        <v>0.3569611438847509</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>-0.02947866516688099</v>
+      </c>
+      <c r="G3">
+        <v>0.3337604961773278</v>
+      </c>
+      <c r="H3">
+        <v>-0.199353848163791</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.06448067826407025</v>
+        <v>-0.05490363027926577</v>
       </c>
       <c r="C4">
-        <v>-0.03387769220721589</v>
+        <v>0.006376078147863676</v>
       </c>
       <c r="D4">
-        <v>-0.03645142114334962</v>
+        <v>0.03448352334366138</v>
       </c>
       <c r="E4">
-        <v>-0.06396818933825436</v>
+        <v>-0.01688397392134049</v>
       </c>
       <c r="F4">
-        <v>0.06106239186362149</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>-0.06335588283823163</v>
+      </c>
+      <c r="G4">
+        <v>0.05461762433540286</v>
+      </c>
+      <c r="H4">
+        <v>-0.01002434949698678</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +827,250 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.007751299571313225</v>
+        <v>-0.03290017867215433</v>
       </c>
       <c r="C6">
-        <v>-0.004278738097248321</v>
+        <v>0.002490134205500723</v>
       </c>
       <c r="D6">
-        <v>-0.005432462942025197</v>
+        <v>0.02698440208008092</v>
       </c>
       <c r="E6">
-        <v>0.00351916163951932</v>
+        <v>-0.003486993209484075</v>
       </c>
       <c r="F6">
-        <v>0.0060191231165129</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>-0.02799152415902747</v>
+      </c>
+      <c r="G6">
+        <v>0.01176474687008819</v>
+      </c>
+      <c r="H6">
+        <v>0.04830845060924979</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.03682480034820253</v>
+        <v>-0.02774581152044197</v>
       </c>
       <c r="C7">
-        <v>-0.01727352774560495</v>
+        <v>0.003876398229456456</v>
       </c>
       <c r="D7">
-        <v>-0.04268183888207674</v>
+        <v>0.02123271624739671</v>
       </c>
       <c r="E7">
-        <v>-0.02219735187013163</v>
+        <v>-0.03370692011165912</v>
       </c>
       <c r="F7">
-        <v>0.06195221566259129</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>-0.02730540350932429</v>
+      </c>
+      <c r="G7">
+        <v>0.04776122896029519</v>
+      </c>
+      <c r="H7">
+        <v>-0.01696266212564432</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.03045198661906829</v>
+        <v>-0.01140438999789869</v>
       </c>
       <c r="C8">
-        <v>-0.00599797074231435</v>
+        <v>0.006143289714336456</v>
       </c>
       <c r="D8">
-        <v>-0.02864770310258471</v>
+        <v>0.02506837727841008</v>
       </c>
       <c r="E8">
-        <v>-0.05851086640603275</v>
+        <v>-0.00996154838664288</v>
       </c>
       <c r="F8">
-        <v>0.09864420217142331</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>-0.02973649637779343</v>
+      </c>
+      <c r="G8">
+        <v>0.06435589995368846</v>
+      </c>
+      <c r="H8">
+        <v>-0.03890661826644401</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.05255903255074305</v>
+        <v>-0.04410153240395447</v>
       </c>
       <c r="C9">
-        <v>-0.02913707645311218</v>
+        <v>0.008607784648373912</v>
       </c>
       <c r="D9">
-        <v>-0.01958550392542079</v>
+        <v>0.02854841261147286</v>
       </c>
       <c r="E9">
-        <v>-0.06963286658573273</v>
+        <v>-0.01660228733013412</v>
       </c>
       <c r="F9">
-        <v>0.06308773799865496</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>-0.04318972134706479</v>
+      </c>
+      <c r="G9">
+        <v>0.07330927677353</v>
+      </c>
+      <c r="H9">
+        <v>-0.009556150051306838</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.03833979708142218</v>
+        <v>-0.06212701220373851</v>
       </c>
       <c r="C10">
-        <v>-0.05627721614248831</v>
+        <v>0.0232745585865561</v>
       </c>
       <c r="D10">
-        <v>0.09532624629005293</v>
+        <v>-0.1618864440426439</v>
       </c>
       <c r="E10">
-        <v>0.1190266072585981</v>
+        <v>0.01443360166660855</v>
       </c>
       <c r="F10">
-        <v>0.07886009967515015</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>0.07071628036491527</v>
+      </c>
+      <c r="G10">
+        <v>0.05139369680677834</v>
+      </c>
+      <c r="H10">
+        <v>-0.02142302587417461</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.04455075839656632</v>
+        <v>-0.03041295599386834</v>
       </c>
       <c r="C11">
-        <v>-0.007962470507526166</v>
+        <v>0.01619665006854706</v>
       </c>
       <c r="D11">
-        <v>-0.02790083667288294</v>
+        <v>0.03331809407275434</v>
       </c>
       <c r="E11">
-        <v>-0.02065557410761766</v>
+        <v>0.00604896133091612</v>
       </c>
       <c r="F11">
-        <v>0.03617947909659951</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>-0.02330061703431859</v>
+      </c>
+      <c r="G11">
+        <v>0.04358679073007726</v>
+      </c>
+      <c r="H11">
+        <v>0.005015855669568793</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.04654722878531422</v>
+        <v>-0.03682614045657427</v>
       </c>
       <c r="C12">
-        <v>-0.008770638263282594</v>
+        <v>0.01425130563533258</v>
       </c>
       <c r="D12">
-        <v>-0.02137289181976942</v>
+        <v>0.03212413514327776</v>
       </c>
       <c r="E12">
-        <v>-0.03622456959429522</v>
+        <v>-0.004910015690745764</v>
       </c>
       <c r="F12">
-        <v>0.01877479768659441</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>-0.0246593293753936</v>
+      </c>
+      <c r="G12">
+        <v>0.01232432457093519</v>
+      </c>
+      <c r="H12">
+        <v>0.00141989246563891</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.03867881511972462</v>
+        <v>-0.03464300494142888</v>
       </c>
       <c r="C13">
-        <v>-0.0235479982644457</v>
+        <v>-0.005778729726491392</v>
       </c>
       <c r="D13">
-        <v>-0.0447967126679694</v>
+        <v>0.008004404768712276</v>
       </c>
       <c r="E13">
-        <v>-0.009612038006267852</v>
+        <v>0.0168250603120766</v>
       </c>
       <c r="F13">
-        <v>0.1025414823845934</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>-0.0271483050956445</v>
+      </c>
+      <c r="G13">
+        <v>0.08124794746491769</v>
+      </c>
+      <c r="H13">
+        <v>-0.0207016993869012</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.01753113647552779</v>
+        <v>-0.01727797575125055</v>
       </c>
       <c r="C14">
-        <v>-0.02273995359386785</v>
+        <v>0.003218636550593443</v>
       </c>
       <c r="D14">
-        <v>-0.02177127854469817</v>
+        <v>0.001838806279841001</v>
       </c>
       <c r="E14">
-        <v>-0.03137404924048298</v>
+        <v>-0.007554037823920057</v>
       </c>
       <c r="F14">
-        <v>0.0559530398952322</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>-0.03009327167402981</v>
+      </c>
+      <c r="G14">
+        <v>0.037945679113484</v>
+      </c>
+      <c r="H14">
+        <v>-0.05389918163523435</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1087,42 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.03584312782616903</v>
+        <v>-0.029293468361373</v>
       </c>
       <c r="C16">
-        <v>-0.008863108913308463</v>
+        <v>0.0154454241228828</v>
       </c>
       <c r="D16">
-        <v>-0.02492714602425083</v>
+        <v>0.03046205893174925</v>
       </c>
       <c r="E16">
-        <v>-0.02078383198009758</v>
+        <v>0.0009893139567516225</v>
       </c>
       <c r="F16">
-        <v>0.03303512921709129</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>-0.02321932424562425</v>
+      </c>
+      <c r="G16">
+        <v>0.03184081077874719</v>
+      </c>
+      <c r="H16">
+        <v>0.002830011012866389</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1139,16 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1165,94 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.04638921049041933</v>
+        <v>-0.03780840653046764</v>
       </c>
       <c r="C19">
-        <v>-0.007801276155939499</v>
+        <v>0.00723888900979518</v>
       </c>
       <c r="D19">
-        <v>-0.03837170742751087</v>
+        <v>0.01789590179438813</v>
       </c>
       <c r="E19">
-        <v>-0.02506096996160719</v>
+        <v>0.004756167417710309</v>
       </c>
       <c r="F19">
-        <v>0.09280527468337441</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>-0.03628711318291379</v>
+      </c>
+      <c r="G19">
+        <v>0.08196124050265924</v>
+      </c>
+      <c r="H19">
+        <v>-0.02209875115578362</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.009680756636295867</v>
+        <v>-0.01086383705255036</v>
       </c>
       <c r="C20">
-        <v>-0.01787493596217172</v>
+        <v>-0.004365735945509271</v>
       </c>
       <c r="D20">
-        <v>-0.03435009357141816</v>
+        <v>0.01378928658232149</v>
       </c>
       <c r="E20">
-        <v>-0.04288131494864254</v>
+        <v>-0.003697765553970778</v>
       </c>
       <c r="F20">
-        <v>0.06998924695729647</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>-0.02544028362389082</v>
+      </c>
+      <c r="G20">
+        <v>0.05053226333246061</v>
+      </c>
+      <c r="H20">
+        <v>-0.03813058523653164</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.01196381899967224</v>
+        <v>-0.02458528648247148</v>
       </c>
       <c r="C21">
-        <v>-0.0002941941328689593</v>
+        <v>-0.002091080836905519</v>
       </c>
       <c r="D21">
-        <v>-0.02974766865816766</v>
+        <v>0.003361465358977353</v>
       </c>
       <c r="E21">
-        <v>-0.02630809246398749</v>
+        <v>-0.01097574546677218</v>
       </c>
       <c r="F21">
-        <v>0.09128376708394759</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>-0.01322466342430926</v>
+      </c>
+      <c r="G21">
+        <v>0.06369020687687044</v>
+      </c>
+      <c r="H21">
+        <v>-0.02133068429033014</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1269,16 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1295,302 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.03469481407990924</v>
+        <v>-0.0281790692207484</v>
       </c>
       <c r="C24">
-        <v>-0.00741547530236417</v>
+        <v>0.01006420038188819</v>
       </c>
       <c r="D24">
-        <v>-0.02026513613002137</v>
+        <v>0.0300760434865009</v>
       </c>
       <c r="E24">
-        <v>-0.02095913433720617</v>
+        <v>0.0003492966619195913</v>
       </c>
       <c r="F24">
-        <v>0.04082780453335629</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>-0.02001805387513856</v>
+      </c>
+      <c r="G24">
+        <v>0.03419831020097047</v>
+      </c>
+      <c r="H24">
+        <v>0.009186219386625618</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.03874612233909317</v>
+        <v>-0.03800798775517107</v>
       </c>
       <c r="C25">
-        <v>-0.007665058223804038</v>
+        <v>0.00943445001804734</v>
       </c>
       <c r="D25">
-        <v>-0.02272709667372264</v>
+        <v>0.02552530113312076</v>
       </c>
       <c r="E25">
-        <v>-0.02949244971389009</v>
+        <v>-0.0004889344817261583</v>
       </c>
       <c r="F25">
-        <v>0.0406664202860704</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>-0.02693561574544638</v>
+      </c>
+      <c r="G25">
+        <v>0.04088268951059165</v>
+      </c>
+      <c r="H25">
+        <v>0.007449594275949666</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.01968646691047258</v>
+        <v>-0.01964072597668085</v>
       </c>
       <c r="C26">
-        <v>0.0008958588457721069</v>
+        <v>-0.01566508541909199</v>
       </c>
       <c r="D26">
-        <v>-0.04621274094734267</v>
+        <v>0.01037485905555135</v>
       </c>
       <c r="E26">
-        <v>-0.01715695662944053</v>
+        <v>0.006021416974039778</v>
       </c>
       <c r="F26">
-        <v>0.05725914595582896</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>-0.008738611643475166</v>
+      </c>
+      <c r="G26">
+        <v>0.04405309820071083</v>
+      </c>
+      <c r="H26">
+        <v>-0.03362917130879055</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>-0.09356903020544594</v>
+        <v>-0.04351469852551267</v>
       </c>
       <c r="C27">
-        <v>-0.04913442506052155</v>
+        <v>0.0230074598047241</v>
       </c>
       <c r="D27">
-        <v>-0.02070608809863606</v>
+        <v>0.009326993529293408</v>
       </c>
       <c r="E27">
-        <v>-0.04727947876685144</v>
+        <v>-0.002079043643876772</v>
       </c>
       <c r="F27">
-        <v>0.05686893878375793</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>-0.03207413771528542</v>
+      </c>
+      <c r="G27">
+        <v>0.034704299311388</v>
+      </c>
+      <c r="H27">
+        <v>-0.02566421129846019</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.05356528820459742</v>
+        <v>-0.09571479190581213</v>
       </c>
       <c r="C28">
-        <v>-0.06655433033887524</v>
+        <v>0.02156360519265306</v>
       </c>
       <c r="D28">
-        <v>0.1547666275656712</v>
+        <v>-0.2390950896146228</v>
       </c>
       <c r="E28">
-        <v>0.17171751358409</v>
+        <v>0.01400846205175204</v>
       </c>
       <c r="F28">
-        <v>0.07878099357505133</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>0.1036496755798871</v>
+      </c>
+      <c r="G28">
+        <v>0.0326200808214873</v>
+      </c>
+      <c r="H28">
+        <v>-0.04507438199979574</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.02349211361474805</v>
+        <v>-0.02191558076855523</v>
       </c>
       <c r="C29">
-        <v>-0.02004539050677107</v>
+        <v>0.005392663408874363</v>
       </c>
       <c r="D29">
-        <v>-0.01944403993321077</v>
+        <v>0.00301166344846003</v>
       </c>
       <c r="E29">
-        <v>-0.03949232942286371</v>
+        <v>-0.007822872210361747</v>
       </c>
       <c r="F29">
-        <v>0.04294631134369029</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>-0.02931662751919787</v>
+      </c>
+      <c r="G29">
+        <v>0.03262279273850001</v>
+      </c>
+      <c r="H29">
+        <v>-0.04967436324878364</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.09846038408994723</v>
+        <v>-0.07232935001891823</v>
       </c>
       <c r="C30">
-        <v>-0.04985001514243857</v>
+        <v>0.01325300221101619</v>
       </c>
       <c r="D30">
-        <v>-0.06387140350482953</v>
+        <v>0.0495997393302515</v>
       </c>
       <c r="E30">
-        <v>-0.04980333728904967</v>
+        <v>0.04111454777483761</v>
       </c>
       <c r="F30">
-        <v>0.07241821678499132</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>-0.07066914227733666</v>
+      </c>
+      <c r="G30">
+        <v>0.0845183634249615</v>
+      </c>
+      <c r="H30">
+        <v>-0.002343352151400944</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.0603928628574634</v>
+        <v>-0.05436790469133839</v>
       </c>
       <c r="C31">
-        <v>-0.01460228434759499</v>
+        <v>0.02236354615978289</v>
       </c>
       <c r="D31">
-        <v>-0.04295841104595852</v>
+        <v>0.01261735642958916</v>
       </c>
       <c r="E31">
-        <v>0.006413397875622511</v>
+        <v>0.01093137582348077</v>
       </c>
       <c r="F31">
-        <v>0.03076869860700272</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>-0.01876078185825231</v>
+      </c>
+      <c r="G31">
+        <v>0.01530343613684768</v>
+      </c>
+      <c r="H31">
+        <v>-0.04309968884332213</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.04430857110634966</v>
+        <v>-0.01786585971802391</v>
       </c>
       <c r="C32">
-        <v>-0.01477415334860288</v>
+        <v>0.02091112474116195</v>
       </c>
       <c r="D32">
-        <v>-0.04726705043552473</v>
+        <v>0.01643839302214661</v>
       </c>
       <c r="E32">
-        <v>-0.07877000109938484</v>
+        <v>-0.01629425033427159</v>
       </c>
       <c r="F32">
-        <v>0.0732458132993606</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>-0.0547744571521642</v>
+      </c>
+      <c r="G32">
+        <v>0.06222831119406474</v>
+      </c>
+      <c r="H32">
+        <v>-0.001536211563716307</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.06026387713804851</v>
+        <v>-0.0456283080430902</v>
       </c>
       <c r="C33">
-        <v>-0.003253972695420889</v>
+        <v>0.009642580771139086</v>
       </c>
       <c r="D33">
-        <v>-0.06346307784228784</v>
+        <v>0.03205270254813303</v>
       </c>
       <c r="E33">
-        <v>-0.03063425273400398</v>
+        <v>0.02443967773199924</v>
       </c>
       <c r="F33">
-        <v>0.0891254256017541</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>-0.01791711458217966</v>
+      </c>
+      <c r="G33">
+        <v>0.07249261877229958</v>
+      </c>
+      <c r="H33">
+        <v>-0.03165332390253317</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.03906330537251643</v>
+        <v>-0.03042871095397458</v>
       </c>
       <c r="C34">
-        <v>-0.01483182377592145</v>
+        <v>0.02366306739894337</v>
       </c>
       <c r="D34">
-        <v>-0.02619465223210847</v>
+        <v>0.02759310948567911</v>
       </c>
       <c r="E34">
-        <v>-0.02826766192776309</v>
+        <v>-0.004516967883821887</v>
       </c>
       <c r="F34">
-        <v>0.03917600767335901</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>-0.02703800365544098</v>
+      </c>
+      <c r="G34">
+        <v>0.03316180485556727</v>
+      </c>
+      <c r="H34">
+        <v>0.006254765805098806</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1607,42 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.01354361769751268</v>
+        <v>-0.01847352378823689</v>
       </c>
       <c r="C36">
-        <v>-0.008062198378538729</v>
+        <v>-0.00269283125747297</v>
       </c>
       <c r="D36">
-        <v>-0.007189573022771175</v>
+        <v>-0.002549010908276926</v>
       </c>
       <c r="E36">
-        <v>-0.01793147684108005</v>
+        <v>-0.002984239895869682</v>
       </c>
       <c r="F36">
-        <v>0.02992533505915488</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>-0.006717108970109507</v>
+      </c>
+      <c r="G36">
+        <v>0.02455984217777861</v>
+      </c>
+      <c r="H36">
+        <v>-0.02807115780250185</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1659,198 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.009535223773717365</v>
+        <v>-0.0164380868981206</v>
       </c>
       <c r="C38">
-        <v>-0.003807991179822686</v>
+        <v>0.01759043030981346</v>
       </c>
       <c r="D38">
-        <v>0.01446489601841397</v>
+        <v>-0.002398358585376897</v>
       </c>
       <c r="E38">
-        <v>-0.002202431422256122</v>
+        <v>-0.004970230309454311</v>
       </c>
       <c r="F38">
-        <v>0.02642845875395725</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>-0.01194429696829678</v>
+      </c>
+      <c r="G38">
+        <v>0.04095139336660866</v>
+      </c>
+      <c r="H38">
+        <v>-0.005548913539904755</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.05109055667945385</v>
+        <v>-0.03655871939563723</v>
       </c>
       <c r="C39">
-        <v>-0.02021053507321041</v>
+        <v>0.01341557387648545</v>
       </c>
       <c r="D39">
-        <v>-0.0440070337419985</v>
+        <v>0.06527564301481407</v>
       </c>
       <c r="E39">
-        <v>-0.02321269059392227</v>
+        <v>0.005209938469089087</v>
       </c>
       <c r="F39">
-        <v>0.03726739534562375</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>-0.04645646601881629</v>
+      </c>
+      <c r="G39">
+        <v>0.05710365414538183</v>
+      </c>
+      <c r="H39">
+        <v>0.0290350918923941</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.04597800384397037</v>
+        <v>-0.03850350761135177</v>
       </c>
       <c r="C40">
-        <v>-0.04197390540886745</v>
+        <v>0.01005922435313494</v>
       </c>
       <c r="D40">
-        <v>-0.07047814357256665</v>
+        <v>0.02683827703276494</v>
       </c>
       <c r="E40">
-        <v>-0.02178517094938518</v>
+        <v>0.02232245451305841</v>
       </c>
       <c r="F40">
-        <v>0.09292715344760336</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>-0.04304510874756381</v>
+      </c>
+      <c r="G40">
+        <v>0.06567714217377527</v>
+      </c>
+      <c r="H40">
+        <v>-0.006332015011709508</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.004974877911927638</v>
+        <v>-0.004966125605498492</v>
       </c>
       <c r="C41">
-        <v>0.00392421100211386</v>
+        <v>-0.001968149595760429</v>
       </c>
       <c r="D41">
-        <v>-0.01610681490989091</v>
+        <v>-0.006657517994113027</v>
       </c>
       <c r="E41">
-        <v>-0.0153875338507399</v>
+        <v>0.0004478252207787189</v>
       </c>
       <c r="F41">
-        <v>0.02048822549021288</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>0.0007310396744743172</v>
+      </c>
+      <c r="G41">
+        <v>0.00976065902532024</v>
+      </c>
+      <c r="H41">
+        <v>-0.04101535207733786</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>-0.3373323505208113</v>
+        <v>-0.2623142520785029</v>
       </c>
       <c r="C42">
-        <v>0.8897282851046416</v>
+        <v>-0.05398007952442204</v>
       </c>
       <c r="D42">
-        <v>-0.03387962517138703</v>
+        <v>0.4935754655975144</v>
       </c>
       <c r="E42">
-        <v>0.2494775910036111</v>
+        <v>0.1127751861539177</v>
       </c>
       <c r="F42">
-        <v>-0.02563536634983809</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>0.8065485447220095</v>
+      </c>
+      <c r="G42">
+        <v>-0.049947957130072</v>
+      </c>
+      <c r="H42">
+        <v>0.01070580068806632</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.01279970484096126</v>
+        <v>-0.003274734349549259</v>
       </c>
       <c r="C43">
-        <v>-0.00107850560616294</v>
+        <v>-0.003880234605321276</v>
       </c>
       <c r="D43">
-        <v>-0.02158822524215913</v>
+        <v>-0.008639832758133749</v>
       </c>
       <c r="E43">
-        <v>-0.01409470115273938</v>
+        <v>0.004445746097002851</v>
       </c>
       <c r="F43">
-        <v>0.03572151585414439</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>0.003678182686165269</v>
+      </c>
+      <c r="G43">
+        <v>0.01768226368833303</v>
+      </c>
+      <c r="H43">
+        <v>-0.04464955783676391</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.03101242082205568</v>
+        <v>-0.01732613665308157</v>
       </c>
       <c r="C44">
-        <v>-0.00426804812186404</v>
+        <v>0.003857139191871768</v>
       </c>
       <c r="D44">
-        <v>-0.05617222641141847</v>
+        <v>0.02852570706381894</v>
       </c>
       <c r="E44">
-        <v>-0.04697819142586659</v>
+        <v>-0.001062800016428718</v>
       </c>
       <c r="F44">
-        <v>0.1857756984079562</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>-0.01110281837249848</v>
+      </c>
+      <c r="G44">
+        <v>0.1059333904633812</v>
+      </c>
+      <c r="H44">
+        <v>-0.05413888281881526</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +1867,94 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.02469598207370542</v>
+        <v>-0.02298796117010383</v>
       </c>
       <c r="C46">
-        <v>-0.01556361037629199</v>
+        <v>0.002326822419625752</v>
       </c>
       <c r="D46">
-        <v>-0.04169706238058718</v>
+        <v>0.01242850452343617</v>
       </c>
       <c r="E46">
-        <v>-0.03733891471928324</v>
+        <v>0.004595664611912448</v>
       </c>
       <c r="F46">
-        <v>0.04013461055524447</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>-0.03654187391093029</v>
+      </c>
+      <c r="G46">
+        <v>0.04487292856987364</v>
+      </c>
+      <c r="H46">
+        <v>-0.05088136079251989</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.09587222730042294</v>
+        <v>-0.07679809259271908</v>
       </c>
       <c r="C47">
-        <v>-0.03247960347436715</v>
+        <v>0.04195755294446558</v>
       </c>
       <c r="D47">
-        <v>-0.02937538688769969</v>
+        <v>0.01380402247298513</v>
       </c>
       <c r="E47">
-        <v>-0.01759161388283182</v>
+        <v>0.007117379949260277</v>
       </c>
       <c r="F47">
-        <v>0.005880117494168256</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>-0.02995085987188311</v>
+      </c>
+      <c r="G47">
+        <v>-0.01627537192718218</v>
+      </c>
+      <c r="H47">
+        <v>-0.05389314725968861</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.01546883540781615</v>
+        <v>-0.0182795901726618</v>
       </c>
       <c r="C48">
-        <v>-0.007659209321084144</v>
+        <v>0.007981830120136814</v>
       </c>
       <c r="D48">
-        <v>-0.02465457280763113</v>
+        <v>0.005414233573156872</v>
       </c>
       <c r="E48">
-        <v>-0.02614446193606822</v>
+        <v>0.0009063128787510463</v>
       </c>
       <c r="F48">
-        <v>0.04797424549768639</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>-0.01295723972545754</v>
+      </c>
+      <c r="G48">
+        <v>0.0315546522506797</v>
+      </c>
+      <c r="H48">
+        <v>-0.02262868765959672</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +1971,68 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.09154629953231189</v>
+        <v>-0.07310322149000263</v>
       </c>
       <c r="C50">
-        <v>-0.01511885648290976</v>
+        <v>0.03695442912152894</v>
       </c>
       <c r="D50">
-        <v>-0.03807301419148502</v>
+        <v>0.02804700613281356</v>
       </c>
       <c r="E50">
-        <v>-0.009498312087275624</v>
+        <v>-0.006125017295948405</v>
       </c>
       <c r="F50">
-        <v>0.01444462539468031</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>-0.02438415099896266</v>
+      </c>
+      <c r="G50">
+        <v>0.01277587537595874</v>
+      </c>
+      <c r="H50">
+        <v>-0.05144819237434612</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.04870513507538609</v>
+        <v>-0.02869322578564442</v>
       </c>
       <c r="C51">
-        <v>0.003429863271402469</v>
+        <v>0.004661091271669825</v>
       </c>
       <c r="D51">
-        <v>-0.04346127617563065</v>
+        <v>-0.001962297950669759</v>
       </c>
       <c r="E51">
-        <v>0.01193300574048044</v>
+        <v>0.01340268470464471</v>
       </c>
       <c r="F51">
-        <v>0.1601336568138227</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>0.01062907588881088</v>
+      </c>
+      <c r="G51">
+        <v>0.09952764329594756</v>
+      </c>
+      <c r="H51">
+        <v>-0.03120725072008422</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2049,250 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.1204149073633248</v>
+        <v>-0.1049051693451576</v>
       </c>
       <c r="C53">
-        <v>-0.03389361712995302</v>
+        <v>0.05642337141891012</v>
       </c>
       <c r="D53">
-        <v>-0.05886389301980679</v>
+        <v>0.04293286171772363</v>
       </c>
       <c r="E53">
-        <v>-0.02765704521954942</v>
+        <v>0.006955649951888101</v>
       </c>
       <c r="F53">
-        <v>-0.06610900227222853</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>-0.05422161902041864</v>
+      </c>
+      <c r="G53">
+        <v>-0.06318827647469005</v>
+      </c>
+      <c r="H53">
+        <v>-0.03531424149811145</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.02155680251942519</v>
+        <v>-0.02149481933576733</v>
       </c>
       <c r="C54">
-        <v>-0.03168787789191729</v>
+        <v>0.01510947975607887</v>
       </c>
       <c r="D54">
-        <v>-0.009989825009720624</v>
+        <v>-0.02401888434284838</v>
       </c>
       <c r="E54">
-        <v>-0.01567501618317312</v>
+        <v>-0.003404548698404753</v>
       </c>
       <c r="F54">
-        <v>0.08016980588169983</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>-0.01927179641633246</v>
+      </c>
+      <c r="G54">
+        <v>0.04182028847155411</v>
+      </c>
+      <c r="H54">
+        <v>-0.06677244096778512</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.1106342829877571</v>
+        <v>-0.08984105280013494</v>
       </c>
       <c r="C55">
-        <v>-0.02239042992690031</v>
+        <v>0.04916591851569034</v>
       </c>
       <c r="D55">
-        <v>-0.01381618716624694</v>
+        <v>0.04096522919341522</v>
       </c>
       <c r="E55">
-        <v>-0.0442639642595309</v>
+        <v>-0.006722080423838648</v>
       </c>
       <c r="F55">
-        <v>-0.05111937053327487</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>-0.04436132944981604</v>
+      </c>
+      <c r="G55">
+        <v>-0.04930648119567185</v>
+      </c>
+      <c r="H55">
+        <v>-0.04396183411521586</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1430328785395353</v>
+        <v>-0.1319194209999106</v>
       </c>
       <c r="C56">
-        <v>-0.06828530147858346</v>
+        <v>0.07819945717838374</v>
       </c>
       <c r="D56">
-        <v>-0.03710629372351916</v>
+        <v>0.0474533005691957</v>
       </c>
       <c r="E56">
-        <v>-0.04914833046451768</v>
+        <v>3.707600948532759e-05</v>
       </c>
       <c r="F56">
-        <v>-0.1587938017268859</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>-0.07752242631019914</v>
+      </c>
+      <c r="G56">
+        <v>-0.1131069656536245</v>
+      </c>
+      <c r="H56">
+        <v>-0.005183886615510756</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>-0.0500603295532526</v>
+        <v>-0.04392975992778736</v>
       </c>
       <c r="C57">
-        <v>-0.01848322382128284</v>
+        <v>-0.002216501338964379</v>
       </c>
       <c r="D57">
-        <v>-0.04859165510841678</v>
+        <v>0.02707738452674594</v>
       </c>
       <c r="E57">
-        <v>-0.01768450737489416</v>
+        <v>0.01176654597268642</v>
       </c>
       <c r="F57">
-        <v>0.07203064125112751</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>-0.0339641614306485</v>
+      </c>
+      <c r="G57">
+        <v>0.06592565085263016</v>
+      </c>
+      <c r="H57">
+        <v>-0.004854808975249719</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.2352080159382584</v>
+        <v>-0.153333585255455</v>
       </c>
       <c r="C58">
-        <v>-0.05258488157423387</v>
+        <v>0.06751122787884729</v>
       </c>
       <c r="D58">
-        <v>-0.1323682905440067</v>
+        <v>0.09519539854986242</v>
       </c>
       <c r="E58">
-        <v>-0.0529227919895448</v>
+        <v>0.1044897155227972</v>
       </c>
       <c r="F58">
-        <v>0.2628003851441219</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>-0.06725030126456963</v>
+      </c>
+      <c r="G58">
+        <v>0.4646323769170604</v>
+      </c>
+      <c r="H58">
+        <v>-0.4908349632569911</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.05721548495876719</v>
+        <v>-0.1009092151950226</v>
       </c>
       <c r="C59">
-        <v>-0.09463782756358609</v>
+        <v>0.03169202402040764</v>
       </c>
       <c r="D59">
-        <v>0.1151882267382083</v>
+        <v>-0.2292447558586522</v>
       </c>
       <c r="E59">
-        <v>0.1242371018066445</v>
+        <v>0.02983875454525823</v>
       </c>
       <c r="F59">
-        <v>0.0544876675657069</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>0.07554843050603174</v>
+      </c>
+      <c r="G59">
+        <v>0.03967530002601078</v>
+      </c>
+      <c r="H59">
+        <v>-0.01394497751175225</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.1743375993481989</v>
+        <v>-0.1746730639006672</v>
       </c>
       <c r="C60">
-        <v>-0.07845307712916723</v>
+        <v>0.06391803604674781</v>
       </c>
       <c r="D60">
-        <v>-0.007890816082024531</v>
+        <v>-0.02435815887735707</v>
       </c>
       <c r="E60">
-        <v>0.08046383043249553</v>
+        <v>0.0591730131396873</v>
       </c>
       <c r="F60">
-        <v>0.09238035195904877</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>-0.05682059893150231</v>
+      </c>
+      <c r="G60">
+        <v>0.1816111229554935</v>
+      </c>
+      <c r="H60">
+        <v>0.365383614394492</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.0299446942871064</v>
+        <v>-0.02962371547896554</v>
       </c>
       <c r="C61">
-        <v>-0.01204127055454533</v>
+        <v>0.01423209328727047</v>
       </c>
       <c r="D61">
-        <v>-0.01815789347148344</v>
+        <v>0.03505719032739658</v>
       </c>
       <c r="E61">
-        <v>-0.02220132078058951</v>
+        <v>-0.0008427698199649512</v>
       </c>
       <c r="F61">
-        <v>0.03808022128300142</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>-0.03264937027199608</v>
+      </c>
+      <c r="G61">
+        <v>0.03866857167708759</v>
+      </c>
+      <c r="H61">
+        <v>0.02342221435015878</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2309,198 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.02434667029070892</v>
+        <v>-0.02042576794503114</v>
       </c>
       <c r="C63">
-        <v>-0.02343464387816672</v>
+        <v>0.004127769731912321</v>
       </c>
       <c r="D63">
-        <v>-0.03702530237825506</v>
+        <v>0.01242202523628228</v>
       </c>
       <c r="E63">
-        <v>-0.03432810815490591</v>
+        <v>0.0007432212210501426</v>
       </c>
       <c r="F63">
-        <v>0.04031212168944532</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>-0.02730324466024529</v>
+      </c>
+      <c r="G63">
+        <v>0.02708730192468189</v>
+      </c>
+      <c r="H63">
+        <v>-0.04027280135502895</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.0540848490093975</v>
+        <v>-0.04929417381408321</v>
       </c>
       <c r="C64">
-        <v>-0.01497963093382215</v>
+        <v>0.02090579563879405</v>
       </c>
       <c r="D64">
-        <v>-0.02979419836175706</v>
+        <v>0.04054821271968084</v>
       </c>
       <c r="E64">
-        <v>-0.06596310147206103</v>
+        <v>-0.007039754918236208</v>
       </c>
       <c r="F64">
-        <v>0.05491714737016293</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>-0.03195589565591044</v>
+      </c>
+      <c r="G64">
+        <v>0.03696352415971482</v>
+      </c>
+      <c r="H64">
+        <v>-0.004932078201864266</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.007187248301404138</v>
+        <v>-0.03844230740292245</v>
       </c>
       <c r="C65">
-        <v>-0.003046649461630289</v>
+        <v>0.002973252710440377</v>
       </c>
       <c r="D65">
-        <v>-0.003312171673228075</v>
+        <v>0.02990516429369389</v>
       </c>
       <c r="E65">
-        <v>0.005416553707144378</v>
+        <v>-0.003154269337447778</v>
       </c>
       <c r="F65">
-        <v>0.003556981011139337</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>-0.02756942314696739</v>
+      </c>
+      <c r="G65">
+        <v>0.006423292416323816</v>
+      </c>
+      <c r="H65">
+        <v>0.05741360758650325</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.0559812161928008</v>
+        <v>-0.04568258675435726</v>
       </c>
       <c r="C66">
-        <v>-0.0312150671417078</v>
+        <v>0.02137893124099309</v>
       </c>
       <c r="D66">
-        <v>-0.05331167541014005</v>
+        <v>0.07435295354507818</v>
       </c>
       <c r="E66">
-        <v>-0.04343213017079367</v>
+        <v>0.01272306003969759</v>
       </c>
       <c r="F66">
-        <v>0.04462052777212658</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>-0.06926972853579413</v>
+      </c>
+      <c r="G66">
+        <v>0.05699375053415835</v>
+      </c>
+      <c r="H66">
+        <v>0.04141073249336264</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.02687492321023693</v>
+        <v>-0.0347333819700646</v>
       </c>
       <c r="C67">
-        <v>-0.01228999149581233</v>
+        <v>0.0222616430899436</v>
       </c>
       <c r="D67">
-        <v>0.02355622998504997</v>
+        <v>-0.01319730566658436</v>
       </c>
       <c r="E67">
-        <v>0.01496144005996044</v>
+        <v>-0.0003753260482270617</v>
       </c>
       <c r="F67">
-        <v>0.03074996860898292</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>-0.01229381061253106</v>
+      </c>
+      <c r="G67">
+        <v>0.03295735779031801</v>
+      </c>
+      <c r="H67">
+        <v>0.0132536846437589</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.05770749087121858</v>
+        <v>-0.09809669495876559</v>
       </c>
       <c r="C68">
-        <v>-0.07748754227234761</v>
+        <v>0.0075129676389257</v>
       </c>
       <c r="D68">
-        <v>0.1594034902956224</v>
+        <v>-0.2256420490297731</v>
       </c>
       <c r="E68">
-        <v>0.1631425464720673</v>
+        <v>0.02196127835124295</v>
       </c>
       <c r="F68">
-        <v>0.02653348971576434</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>0.09728384680670907</v>
+      </c>
+      <c r="G68">
+        <v>0.01265403610581382</v>
+      </c>
+      <c r="H68">
+        <v>-0.05796836420536103</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.0705313997752982</v>
+        <v>-0.06041826297241938</v>
       </c>
       <c r="C69">
-        <v>-0.03703785476574408</v>
+        <v>0.0377279479058976</v>
       </c>
       <c r="D69">
-        <v>-0.0150024231954723</v>
+        <v>0.009202209721911773</v>
       </c>
       <c r="E69">
-        <v>0.01131959262173861</v>
+        <v>0.008069177250679542</v>
       </c>
       <c r="F69">
-        <v>0.01585449079526135</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>-0.02626406008210215</v>
+      </c>
+      <c r="G69">
+        <v>-0.001604576113284793</v>
+      </c>
+      <c r="H69">
+        <v>-0.03202444009569595</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2517,224 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.06541211552525308</v>
+        <v>-0.09815281002812536</v>
       </c>
       <c r="C71">
-        <v>-0.08897277602412178</v>
+        <v>0.01707151429724221</v>
       </c>
       <c r="D71">
-        <v>0.1920290759680952</v>
+        <v>-0.2318477480450794</v>
       </c>
       <c r="E71">
-        <v>0.2532506018955533</v>
+        <v>0.02947603377518927</v>
       </c>
       <c r="F71">
-        <v>0.07733536165715016</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>0.1192134059333074</v>
+      </c>
+      <c r="G71">
+        <v>0.03019984657853921</v>
+      </c>
+      <c r="H71">
+        <v>-0.02168267407388786</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.1244840218788312</v>
+        <v>-0.1062083366985564</v>
       </c>
       <c r="C72">
-        <v>-0.1070994573647924</v>
+        <v>0.06637325927235453</v>
       </c>
       <c r="D72">
-        <v>-0.02840674380797265</v>
+        <v>0.04239783250725952</v>
       </c>
       <c r="E72">
-        <v>-0.03746760569277416</v>
+        <v>0.01484256155646533</v>
       </c>
       <c r="F72">
-        <v>0.02544092798178835</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>-0.1124898184393169</v>
+      </c>
+      <c r="G72">
+        <v>0.1047044430166131</v>
+      </c>
+      <c r="H72">
+        <v>0.1222166189626712</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.2490067635300408</v>
+        <v>-0.2457009945147661</v>
       </c>
       <c r="C73">
-        <v>-0.1058970747385424</v>
+        <v>0.08489932518107168</v>
       </c>
       <c r="D73">
-        <v>0.02765058706300841</v>
+        <v>-0.008092126043844777</v>
       </c>
       <c r="E73">
-        <v>0.1218006444483762</v>
+        <v>0.09268617416382707</v>
       </c>
       <c r="F73">
-        <v>0.1730835261572518</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>-0.05845919421392244</v>
+      </c>
+      <c r="G73">
+        <v>0.2582973638109607</v>
+      </c>
+      <c r="H73">
+        <v>0.5188072635555829</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.1302121679277217</v>
+        <v>-0.1202073539089731</v>
       </c>
       <c r="C74">
-        <v>-0.03333994399788973</v>
+        <v>0.07006836384077804</v>
       </c>
       <c r="D74">
-        <v>-0.02709091608433088</v>
+        <v>0.04615075027332787</v>
       </c>
       <c r="E74">
-        <v>-0.01305510557516081</v>
+        <v>0.009171192223793081</v>
       </c>
       <c r="F74">
-        <v>-0.1117425988641762</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>-0.05940553637027928</v>
+      </c>
+      <c r="G74">
+        <v>-0.08753601099643953</v>
+      </c>
+      <c r="H74">
+        <v>0.01302453055469022</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.2325914679214866</v>
+        <v>-0.2325306211165256</v>
       </c>
       <c r="C75">
-        <v>-0.09984266019080684</v>
+        <v>0.1376132087735548</v>
       </c>
       <c r="D75">
-        <v>-0.06376940735170636</v>
+        <v>0.0489236992220566</v>
       </c>
       <c r="E75">
-        <v>-0.01377987842701872</v>
+        <v>0.03215381429414953</v>
       </c>
       <c r="F75">
-        <v>-0.1743616073444824</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>-0.1175228254972047</v>
+      </c>
+      <c r="G75">
+        <v>-0.1857908931662795</v>
+      </c>
+      <c r="H75">
+        <v>-0.04194166792094639</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.2563956584908403</v>
+        <v>-0.2192176292716751</v>
       </c>
       <c r="C76">
-        <v>-0.1130310873556429</v>
+        <v>0.1340575416585807</v>
       </c>
       <c r="D76">
-        <v>-0.006105602476862344</v>
+        <v>0.0472265823904205</v>
       </c>
       <c r="E76">
-        <v>-0.04762003710758438</v>
+        <v>-0.01202827561982745</v>
       </c>
       <c r="F76">
-        <v>-0.219669345695188</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>-0.1257868973460146</v>
+      </c>
+      <c r="G76">
+        <v>-0.2080455975731167</v>
+      </c>
+      <c r="H76">
+        <v>-0.0545545641128701</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.1484395564692625</v>
+        <v>-0.09035899240927632</v>
       </c>
       <c r="C77">
-        <v>0.01898954937952789</v>
+        <v>0.02754832338631118</v>
       </c>
       <c r="D77">
-        <v>-0.0821065893163285</v>
+        <v>0.07387937381087481</v>
       </c>
       <c r="E77">
-        <v>-0.03652698516530145</v>
+        <v>0.01473161377852489</v>
       </c>
       <c r="F77">
-        <v>0.2126400856477794</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>-0.004434798983896834</v>
+      </c>
+      <c r="G77">
+        <v>0.1390545132934925</v>
+      </c>
+      <c r="H77">
+        <v>-0.175814821603033</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.06437814579361162</v>
+        <v>-0.04776626619154869</v>
       </c>
       <c r="C78">
-        <v>-0.007207972173728025</v>
+        <v>0.02164719781336278</v>
       </c>
       <c r="D78">
-        <v>-0.07016627352323662</v>
+        <v>0.05926989481624968</v>
       </c>
       <c r="E78">
-        <v>-0.07960681943632265</v>
+        <v>-0.001340689679504137</v>
       </c>
       <c r="F78">
-        <v>0.04187540938868435</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>-0.04581244760352283</v>
+      </c>
+      <c r="G78">
+        <v>0.06167573362876856</v>
+      </c>
+      <c r="H78">
+        <v>-0.01651550634157312</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,50 +2751,68 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.1615537740144507</v>
+        <v>-0.1684788219362324</v>
       </c>
       <c r="C80">
-        <v>0.1561916104116225</v>
+        <v>0.06742861843742899</v>
       </c>
       <c r="D80">
-        <v>0.7166222572123577</v>
+        <v>0.001786211870843899</v>
       </c>
       <c r="E80">
-        <v>-0.638276994061302</v>
+        <v>-0.9650068034216222</v>
       </c>
       <c r="F80">
-        <v>0.06673553077441559</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>0.09697503351468614</v>
+      </c>
+      <c r="G80">
+        <v>0.09295862442274067</v>
+      </c>
+      <c r="H80">
+        <v>0.02081098828712043</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1645726564760239</v>
+        <v>-0.1584034832705247</v>
       </c>
       <c r="C81">
-        <v>-0.08875183094803893</v>
+        <v>0.09408470473934864</v>
       </c>
       <c r="D81">
-        <v>-0.03519589281069396</v>
+        <v>0.03483944197968675</v>
       </c>
       <c r="E81">
-        <v>-0.03364523196416895</v>
+        <v>0.006803003486737885</v>
       </c>
       <c r="F81">
-        <v>-0.2059770191972616</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>-0.09096708988398057</v>
+      </c>
+      <c r="G81">
+        <v>-0.1404128892423721</v>
+      </c>
+      <c r="H81">
+        <v>-0.05111613758747219</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2337,30 +2829,42 @@
       <c r="F82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.05865517082059628</v>
+        <v>-0.04315017708289726</v>
       </c>
       <c r="C83">
-        <v>0.01576049230827053</v>
+        <v>0.0153750576235219</v>
       </c>
       <c r="D83">
-        <v>-0.05495418668496421</v>
+        <v>0.02832874302487359</v>
       </c>
       <c r="E83">
-        <v>-0.02354100514652028</v>
+        <v>0.01338364861679119</v>
       </c>
       <c r="F83">
-        <v>0.07489713685639993</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>-0.01563114923076213</v>
+      </c>
+      <c r="G83">
+        <v>0.06092444637310832</v>
+      </c>
+      <c r="H83">
+        <v>-0.01897866900383066</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +2881,302 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.2363019361910787</v>
+        <v>-0.2232497340961483</v>
       </c>
       <c r="C85">
-        <v>-0.07573519916325074</v>
+        <v>0.1194567714883192</v>
       </c>
       <c r="D85">
-        <v>-0.03374479089406023</v>
+        <v>0.07419276394335422</v>
       </c>
       <c r="E85">
-        <v>-0.02660993604483226</v>
+        <v>0.02165220190487582</v>
       </c>
       <c r="F85">
-        <v>-0.1922587379590314</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>-0.1095211133672885</v>
+      </c>
+      <c r="G85">
+        <v>-0.1776409106178736</v>
+      </c>
+      <c r="H85">
+        <v>-0.03104810938289498</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.01732370254763028</v>
+        <v>-0.01371143947385029</v>
       </c>
       <c r="C86">
-        <v>0.008289585152169049</v>
+        <v>0.0009403012819520944</v>
       </c>
       <c r="D86">
-        <v>-0.0407316415211741</v>
+        <v>0.02268009405815938</v>
       </c>
       <c r="E86">
-        <v>-0.05936310156470481</v>
+        <v>0.007266593259566221</v>
       </c>
       <c r="F86">
-        <v>0.09160943832117653</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>-0.01705194209192511</v>
+      </c>
+      <c r="G86">
+        <v>0.09700177519756827</v>
+      </c>
+      <c r="H86">
+        <v>-0.02163030505643611</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.02220402597968896</v>
+        <v>-0.02503866733505664</v>
       </c>
       <c r="C87">
-        <v>-0.02684678829321451</v>
+        <v>0.004447124239933127</v>
       </c>
       <c r="D87">
-        <v>0.03932704036698384</v>
+        <v>-0.006095042174228832</v>
       </c>
       <c r="E87">
-        <v>0.04274158233609636</v>
+        <v>0.0003432555997314027</v>
       </c>
       <c r="F87">
-        <v>0.06417717123206911</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>-0.007130194951275984</v>
+      </c>
+      <c r="G87">
+        <v>0.09050532460839052</v>
+      </c>
+      <c r="H87">
+        <v>0.01447640271036597</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.01441544572127502</v>
+        <v>-0.03807323036131634</v>
       </c>
       <c r="C88">
-        <v>-0.0202202683276608</v>
+        <v>-0.006163111898068524</v>
       </c>
       <c r="D88">
-        <v>0.01299032032175511</v>
+        <v>-0.01422878541674602</v>
       </c>
       <c r="E88">
-        <v>-0.009596982898938674</v>
+        <v>-0.004860441312727828</v>
       </c>
       <c r="F88">
-        <v>0.03934976102994984</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>-0.01450226406673706</v>
+      </c>
+      <c r="G88">
+        <v>0.008777489067634713</v>
+      </c>
+      <c r="H88">
+        <v>-0.005183580000638044</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.08414412353202264</v>
+        <v>-0.1533662100105438</v>
       </c>
       <c r="C89">
-        <v>-0.09537278388560649</v>
+        <v>0.023165120863225</v>
       </c>
       <c r="D89">
-        <v>0.1927343866399324</v>
+        <v>-0.3530649074561216</v>
       </c>
       <c r="E89">
-        <v>0.2607225468699849</v>
+        <v>0.06237599151266096</v>
       </c>
       <c r="F89">
-        <v>0.109586810742942</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>0.1500789539064811</v>
+      </c>
+      <c r="G89">
+        <v>0.02307160855528303</v>
+      </c>
+      <c r="H89">
+        <v>-0.06035373368935464</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.07987180605300018</v>
+        <v>-0.1192079141795793</v>
       </c>
       <c r="C90">
-        <v>-0.0932523252600531</v>
+        <v>0.01722356337494606</v>
       </c>
       <c r="D90">
-        <v>0.2268072139303918</v>
+        <v>-0.3028648195543528</v>
       </c>
       <c r="E90">
-        <v>0.2099654524683468</v>
+        <v>0.035579843884328</v>
       </c>
       <c r="F90">
-        <v>0.0622343184646582</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>0.1414124077353929</v>
+      </c>
+      <c r="G90">
+        <v>-0.0146764452532224</v>
+      </c>
+      <c r="H90">
+        <v>-0.06273794649650863</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.3011144637517663</v>
+        <v>-0.2514582005615873</v>
       </c>
       <c r="C91">
-        <v>-0.07784839358751637</v>
+        <v>0.1459178921228169</v>
       </c>
       <c r="D91">
-        <v>-0.07615837859985854</v>
+        <v>0.0829817372222505</v>
       </c>
       <c r="E91">
-        <v>-0.03938981879796147</v>
+        <v>0.02506215888252942</v>
       </c>
       <c r="F91">
-        <v>-0.2683372522409677</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>-0.1171485306991557</v>
+      </c>
+      <c r="G91">
+        <v>-0.2530922667313029</v>
+      </c>
+      <c r="H91">
+        <v>-0.08008158268913075</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.1173867362535407</v>
+        <v>-0.1825624302967994</v>
       </c>
       <c r="C92">
-        <v>-0.08499153601655525</v>
+        <v>0.09380681163029431</v>
       </c>
       <c r="D92">
-        <v>0.2416873334812014</v>
+        <v>-0.2993472116024718</v>
       </c>
       <c r="E92">
-        <v>0.2220659893370555</v>
+        <v>0.02089451957704564</v>
       </c>
       <c r="F92">
-        <v>0.06327689033521729</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>0.1282047960653636</v>
+      </c>
+      <c r="G92">
+        <v>-0.04701310532718443</v>
+      </c>
+      <c r="H92">
+        <v>-0.107027116702071</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.0717605481822637</v>
+        <v>-0.1382760771117344</v>
       </c>
       <c r="C93">
-        <v>-0.08253588228173094</v>
+        <v>0.02676727342543342</v>
       </c>
       <c r="D93">
-        <v>0.2771881524746111</v>
+        <v>-0.3413613692649843</v>
       </c>
       <c r="E93">
-        <v>0.2915665038596138</v>
+        <v>0.05157285751997523</v>
       </c>
       <c r="F93">
-        <v>0.03953192369503826</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>0.1865714387960788</v>
+      </c>
+      <c r="G93">
+        <v>-0.01206452334654737</v>
+      </c>
+      <c r="H93">
+        <v>0.02083374074211691</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.2470187263711686</v>
+        <v>-0.2557827373021374</v>
       </c>
       <c r="C94">
-        <v>-0.1092904908886125</v>
+        <v>0.127657656208752</v>
       </c>
       <c r="D94">
-        <v>0.009927129034649325</v>
+        <v>0.03107336287444214</v>
       </c>
       <c r="E94">
-        <v>-0.009006418600581947</v>
+        <v>0.03773711167508128</v>
       </c>
       <c r="F94">
-        <v>-0.3383051589758818</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>-0.1168768812467634</v>
+      </c>
+      <c r="G94">
+        <v>-0.2817251138666942</v>
+      </c>
+      <c r="H94">
+        <v>-0.07497714985772128</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.1411943970691983</v>
+        <v>-0.0908915611953436</v>
       </c>
       <c r="C95">
-        <v>-0.001329137223124675</v>
+        <v>0.0557576028554096</v>
       </c>
       <c r="D95">
-        <v>-0.1349504754104681</v>
+        <v>0.08350890785265613</v>
       </c>
       <c r="E95">
-        <v>-0.05566362797948378</v>
+        <v>0.08008247939443112</v>
       </c>
       <c r="F95">
-        <v>0.07527040484078017</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>-0.03456616150149895</v>
+      </c>
+      <c r="G95">
+        <v>0.1029037589068909</v>
+      </c>
+      <c r="H95">
+        <v>-0.04541132967863482</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3193,16 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3219,42 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.1906561317585601</v>
+        <v>-0.1793169699783074</v>
       </c>
       <c r="C98">
-        <v>-0.05040104164705352</v>
+        <v>0.09388668901802028</v>
       </c>
       <c r="D98">
-        <v>0.003936384271111314</v>
+        <v>0.002142836409282227</v>
       </c>
       <c r="E98">
-        <v>0.08886911506304336</v>
+        <v>0.0623870670073023</v>
       </c>
       <c r="F98">
-        <v>0.06349231657547251</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>-0.01954602013676289</v>
+      </c>
+      <c r="G98">
+        <v>0.197806633730288</v>
+      </c>
+      <c r="H98">
+        <v>0.3912562245469536</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3271,16 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,85 +3297,115 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.01107982614528918</v>
+        <v>-0.01489414253574887</v>
       </c>
       <c r="C101">
-        <v>-0.02574126129729499</v>
+        <v>0.002567980499601257</v>
       </c>
       <c r="D101">
-        <v>-0.04934217658431422</v>
+        <v>0.006027562314938901</v>
       </c>
       <c r="E101">
-        <v>-0.06441954009961239</v>
+        <v>-0.003714267838205723</v>
       </c>
       <c r="F101">
-        <v>0.1519590125356971</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>-0.0385358009575437</v>
+      </c>
+      <c r="G101">
+        <v>0.07941760400291606</v>
+      </c>
+      <c r="H101">
+        <v>-0.1099126858303667</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.1021857420790234</v>
+        <v>-0.1148831852794922</v>
       </c>
       <c r="C102">
-        <v>-0.02473226033839382</v>
+        <v>0.05432059904535237</v>
       </c>
       <c r="D102">
-        <v>-0.0396335850608265</v>
+        <v>0.03901087764121584</v>
       </c>
       <c r="E102">
-        <v>-0.05404154079091254</v>
+        <v>0.002660679805961996</v>
       </c>
       <c r="F102">
-        <v>-0.117614065892159</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>-0.06207278887468405</v>
+      </c>
+      <c r="G102">
+        <v>-0.1192733500406413</v>
+      </c>
+      <c r="H102">
+        <v>-0.02803179448501912</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>-0.02551836372343748</v>
+        <v>-0.0239118196624681</v>
       </c>
       <c r="C103">
-        <v>-0.006704845335810188</v>
+        <v>0.01220706386184298</v>
       </c>
       <c r="D103">
-        <v>-0.004549218062989372</v>
+        <v>0.009235619432446815</v>
       </c>
       <c r="E103">
-        <v>2.606311227492108e-05</v>
+        <v>-0.006573954308109288</v>
       </c>
       <c r="F103">
-        <v>-0.03305015221557861</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>-0.01298600707509514</v>
+      </c>
+      <c r="G103">
+        <v>-0.01358284403432343</v>
+      </c>
+      <c r="H103">
+        <v>-0.01381486444417524</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>-0.3780724048965406</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>-0.9034394161419779</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>-0.01709705027006356</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>-0.01841333237646087</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>-0.168567280595905</v>
+      </c>
+      <c r="G104">
+        <v>-0.05403475992281641</v>
+      </c>
+      <c r="H104">
+        <v>-0.006435035046108937</v>
       </c>
     </row>
   </sheetData>
